--- a/data/trans_camb/P41A_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P41A_R2-Clase-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.398998232769858</v>
+        <v>-6.037002118101793</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-10.82886656157033</v>
+        <v>-11.09665555393461</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-20.82585280267219</v>
+        <v>-20.94596704804648</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.93699674199128</v>
+        <v>-7.666969047739087</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-9.209450180520278</v>
+        <v>-9.843535562637813</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-18.78279841764194</v>
+        <v>-18.94304090517284</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.807882223182931</v>
+        <v>-4.204751308019392</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-8.149278604822713</v>
+        <v>-7.587715069244274</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-17.84901081721982</v>
+        <v>-18.14867216925764</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.806282763522841</v>
+        <v>7.937461488604791</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.329841939121994</v>
+        <v>2.71597738120528</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-6.654962284149948</v>
+        <v>-7.199091999538092</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.562961674544449</v>
+        <v>9.213508058888966</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.302174313782789</v>
+        <v>6.433243975059119</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-4.410069617831327</v>
+        <v>-4.428854933200918</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.570710702433047</v>
+        <v>6.729147999184979</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.005107823629007</v>
+        <v>2.594828378449815</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-8.095881703629953</v>
+        <v>-8.059166362924316</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.065151474447549</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.2570615504908975</v>
+        <v>-0.2570615504908976</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.002696805394479891</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.07509391973450212</v>
+        <v>-0.1015890432667373</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1841100525568267</v>
+        <v>-0.1875750068311255</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.358940199540482</v>
+        <v>-0.3603361544126109</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1517204197981293</v>
+        <v>-0.1296877299875867</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1562561477259015</v>
+        <v>-0.1653210568210864</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3206573925640436</v>
+        <v>-0.3196373008867187</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.06673269693841428</v>
+        <v>-0.07373778730034732</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1410018497337292</v>
+        <v>-0.1305126622063071</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3103690069463153</v>
+        <v>-0.3144805449680981</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.167253095633443</v>
+        <v>0.1520847820709617</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.06367227564240634</v>
+        <v>0.0530422967845796</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.129048827976076</v>
+        <v>-0.1373618925033756</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1477253073642695</v>
+        <v>0.1794206591051446</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1214783210912227</v>
+        <v>0.123253468311861</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.08858723694271482</v>
+        <v>-0.08908602215711922</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1251705251740797</v>
+        <v>0.1279252723975486</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.03842837646290707</v>
+        <v>0.05002485349799822</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1496544566738482</v>
+        <v>-0.1510820136684524</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-3.892903087901056</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-12.10981927058405</v>
+        <v>-12.10981927058406</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-9.264526332781475</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.61020289279121</v>
+        <v>-3.212076188920778</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-12.14277322042056</v>
+        <v>-11.56947267527644</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-19.5893178427512</v>
+        <v>-20.84684388056062</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-16.27857540937727</v>
+        <v>-16.53544168562295</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-12.16751704206708</v>
+        <v>-11.69079429498528</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-24.58878476095141</v>
+        <v>-25.27359803394275</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-7.601829955722962</v>
+        <v>-7.723373833983156</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-9.416063527524473</v>
+        <v>-9.87391144316295</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-20.18227632856824</v>
+        <v>-20.48950490332006</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.88966987830201</v>
+        <v>11.86022698631927</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.03468114743743</v>
+        <v>3.044806855601521</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-4.576027130345118</v>
+        <v>-5.36937766405059</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.055953494740746</v>
+        <v>-1.573001538256453</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.875698233534367</v>
+        <v>2.568488508144181</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-10.67267660547905</v>
+        <v>-11.16171267874801</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.206435761588236</v>
+        <v>2.540455996440844</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8232636419712369</v>
+        <v>0.6022745731791664</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-9.765783635050921</v>
+        <v>-9.424092140083831</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.0730362274125271</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.2271969001539808</v>
+        <v>-0.227196900153981</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1503728132948228</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.06272241562645196</v>
+        <v>-0.05636942520961727</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2079924924352223</v>
+        <v>-0.2008581507092563</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3415925109270524</v>
+        <v>-0.3612620216682706</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2513277300588974</v>
+        <v>-0.2559736219230111</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1885553799635149</v>
+        <v>-0.1820454037582097</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3807362251434044</v>
+        <v>-0.3888156675688571</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1266258668863925</v>
+        <v>-0.1283195807482258</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1556464282833332</v>
+        <v>-0.164265448323432</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.3392412496979166</v>
+        <v>-0.3423864333082023</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2406509127682245</v>
+        <v>0.2499392071389443</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.0891597385566298</v>
+        <v>0.06325221498672</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.08738982296613897</v>
+        <v>-0.1072012396329873</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.01708200023121737</v>
+        <v>-0.0225497226915865</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.04928902092470897</v>
+        <v>0.04219509813197304</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1825934577702615</v>
+        <v>-0.1923968244710605</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05796500707399782</v>
+        <v>0.04658552071320945</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.01615785391320348</v>
+        <v>0.01121737941561242</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.1799713376658841</v>
+        <v>-0.1691896703298363</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-9.693377832439449</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-9.003706952181112</v>
+        <v>-9.003706952181096</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-17.10573633912749</v>
@@ -1083,7 +1083,7 @@
         <v>-16.74041853011857</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-22.56193154941429</v>
+        <v>-22.56193154941428</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-7.434700562831881</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.237081382068709</v>
+        <v>-10.02019272269174</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-15.88024388529901</v>
+        <v>-16.38749040711511</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-16.15478040135852</v>
+        <v>-15.77988320952216</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-25.79433595024925</v>
+        <v>-26.14052986873798</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-26.55861470392156</v>
+        <v>-27.57408070802638</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-32.40877105174874</v>
+        <v>-32.75821070895324</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-12.03954114883084</v>
+        <v>-12.72468713911841</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-16.41476657770334</v>
+        <v>-16.26273456921421</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-18.42723252818289</v>
+        <v>-18.98519675431224</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.101003806406958</v>
+        <v>2.322993843850779</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-3.481955222631273</v>
+        <v>-3.59793770823913</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-2.238288816230034</v>
+        <v>-2.166296761168233</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-7.063447576581685</v>
+        <v>-7.393159700733341</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-4.422048331841044</v>
+        <v>-6.073489503796032</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-11.11718838902796</v>
+        <v>-12.4421628251793</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-2.250592263982433</v>
+        <v>-2.600862880904724</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-5.632724683842925</v>
+        <v>-6.118734721046564</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-6.950553254500251</v>
+        <v>-6.674397397291504</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.188095056161582</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.174712344252729</v>
+        <v>-0.1747123442527286</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.321972904454055</v>
@@ -1188,7 +1188,7 @@
         <v>-0.315096706102608</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.4246721969192369</v>
+        <v>-0.4246721969192366</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.1432164830141757</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1700822152951347</v>
+        <v>-0.1841522782655022</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2914320588915116</v>
+        <v>-0.2983492983310218</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2949602352879167</v>
+        <v>-0.2920767752180154</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4559197672123216</v>
+        <v>-0.4502663832902881</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4572137561651457</v>
+        <v>-0.4823194833358463</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5559754479512613</v>
+        <v>-0.5624394064049127</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2219396182090329</v>
+        <v>-0.2315972698281942</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3023767181744628</v>
+        <v>-0.3028644859686276</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3378707293729143</v>
+        <v>-0.3491983768894673</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.04679675492224188</v>
+        <v>0.04768469911408988</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.07221451870041379</v>
+        <v>-0.07421387353624459</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.04406775389117412</v>
+        <v>-0.04475814322083251</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.1513836778220362</v>
+        <v>-0.1492695811952882</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.08778880130038968</v>
+        <v>-0.1277553930304641</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.2325115785118156</v>
+        <v>-0.2556925952416894</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.04302552922689565</v>
+        <v>-0.05212847576244057</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.1173989733629851</v>
+        <v>-0.125090149297348</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.1377672141179677</v>
+        <v>-0.1378407597782893</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>0.6016664000067007</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-6.41691986890755</v>
+        <v>-6.416919868907539</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.251691574694342</v>
+        <v>-4.159702269844348</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.277222474105293</v>
+        <v>-5.581780840671439</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-12.31344654637995</v>
+        <v>-11.94147407744046</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.183725084924774</v>
+        <v>1.124823244714137</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.032247282430555</v>
+        <v>-1.015790402017802</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-8.738325122514443</v>
+        <v>-8.618301819626243</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.8269646174963424</v>
+        <v>-0.7802332090201042</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.754284609206758</v>
+        <v>-2.491842589602339</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-9.833327380160807</v>
+        <v>-10.26037003553909</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.090691953459801</v>
+        <v>3.841749886588444</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.64487247682767</v>
+        <v>2.70054577803844</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-3.26551432011166</v>
+        <v>-3.009051362138275</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.83402940068271</v>
+        <v>11.55084499782351</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.987407189637381</v>
+        <v>9.29095780490155</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.297638287061641</v>
+        <v>1.323238930255159</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.568376052360176</v>
+        <v>5.563147584100776</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.641941323312204</v>
+        <v>3.62507413023655</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-2.924399857964043</v>
+        <v>-3.105913659033793</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.01320445504011144</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1408287547784684</v>
+        <v>-0.1408287547784682</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.08697565482921674</v>
+        <v>-0.08384056814462207</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1083653854141012</v>
+        <v>-0.1124597666734921</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2554693362488886</v>
+        <v>-0.2446840109701256</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.02604759938533058</v>
+        <v>0.02406265099376335</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.02409732123682694</v>
+        <v>-0.02262849065692521</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1938131605320249</v>
+        <v>-0.1953058088608803</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.01756964180866754</v>
+        <v>-0.01711444329653272</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.05858896294191419</v>
+        <v>-0.0530209869769326</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2086820531893425</v>
+        <v>-0.2165892695890628</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.0902058367817575</v>
+        <v>0.08477324430118903</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.05777866872016284</v>
+        <v>0.05960050971387378</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.07111168141187608</v>
+        <v>-0.06700556941340581</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2992831670795177</v>
+        <v>0.2923035770867364</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.227452704141243</v>
+        <v>0.2380724042904079</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03310304259589263</v>
+        <v>0.03323173404178754</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1282365750221782</v>
+        <v>0.1239028145217929</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.08387076112094501</v>
+        <v>0.08251946388367139</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.06714395605761239</v>
+        <v>-0.07012789341628119</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-6.827036064400654</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>-10.04310717239042</v>
+        <v>-10.04310717239044</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-10.73973218383364</v>
+        <v>-11.28354992438541</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-12.39618448844628</v>
+        <v>-12.73365594719391</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-15.65966418352895</v>
+        <v>-16.13075042060886</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-12.90846381749805</v>
+        <v>-13.13655362618651</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-13.30273785551841</v>
+        <v>-13.73574008115212</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-16.08166983140849</v>
+        <v>-16.47648632926683</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-10.36473616180076</v>
+        <v>-10.7493959247417</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-10.64994475909211</v>
+        <v>-10.87085722261011</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-14.78282347909886</v>
+        <v>-14.69464285140719</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.482907381291671</v>
+        <v>2.840838160996909</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.6254680960441044</v>
+        <v>0.711206940460744</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.269805779835794</v>
+        <v>-0.3487038338425253</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-2.055301840969414</v>
+        <v>-2.332670785482615</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-2.352946872859881</v>
+        <v>-2.612118962878495</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-5.788205757996985</v>
+        <v>-5.86406058723877</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-1.402348399276467</v>
+        <v>-2.110758058968451</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-2.491572506378504</v>
+        <v>-2.654338529120845</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-6.045585421227658</v>
+        <v>-5.575827485804798</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>-0.1553252937993517</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.2284957275008722</v>
+        <v>-0.2284957275008725</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2122729780576892</v>
+        <v>-0.2252630644761565</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2473802183001731</v>
+        <v>-0.2497574267333801</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3177344262564858</v>
+        <v>-0.3186647767734441</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2924874674401107</v>
+        <v>-0.2887505854004965</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2992563235785617</v>
+        <v>-0.3062154610744413</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.358576914712388</v>
+        <v>-0.3655336330837121</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2222975731187967</v>
+        <v>-0.2301174150604301</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2313386438338026</v>
+        <v>-0.2353341957369124</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3171532193020916</v>
+        <v>-0.3173765863930848</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.05900635634623076</v>
+        <v>0.06643195640214834</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.01255199296435657</v>
+        <v>0.01675622586340553</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.036409953671997</v>
+        <v>-0.00796024023491658</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.05906848050568349</v>
+        <v>-0.05872566649978107</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.06425410170142673</v>
+        <v>-0.06670416091454723</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.1457072987787347</v>
+        <v>-0.1548568563397545</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.03390461269745093</v>
+        <v>-0.05044561057774273</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.05961610422100425</v>
+        <v>-0.06407751964771805</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.1429970196306162</v>
+        <v>-0.1319131196989779</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-0.9971655981916294</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-3.224651802392786</v>
+        <v>-3.224651802392783</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-0.5802342605842836</v>
@@ -1734,7 +1734,7 @@
         <v>0.5323596738978864</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.017761844406744</v>
+        <v>0.01776184440673845</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-7.502887085587309</v>
+        <v>-7.617500132458598</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.344200456295261</v>
+        <v>-4.177423053500464</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2.866698488597967</v>
+        <v>4.023509420480234</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-4.32420061312405</v>
+        <v>-4.166143499590359</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-4.466086980822905</v>
+        <v>-4.500001103326265</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-8.157425345699194</v>
+        <v>-7.985541214724151</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-3.984407402577811</v>
+        <v>-3.80287389811142</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.965426197029454</v>
+        <v>-2.805339412085068</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-4.728648842810248</v>
+        <v>-4.782212435010162</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>8.840567643214072</v>
+        <v>8.150558398442948</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>12.88439120365159</v>
+        <v>12.78054607280132</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>31.90579491618888</v>
+        <v>33.34359833346085</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.918444619725804</v>
+        <v>2.95962133604538</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>3.091833750824161</v>
+        <v>2.7018132583429</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>1.35958084632103</v>
+        <v>1.442746494557179</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.721393416761386</v>
+        <v>2.695855570210313</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.122143102553299</v>
+        <v>4.085370809417251</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>4.990719329506211</v>
+        <v>5.064857255892048</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.03700596313108958</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.119670540105232</v>
+        <v>-0.1196705401052318</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.0188179870492293</v>
@@ -1839,7 +1839,7 @@
         <v>0.01726533252078998</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.0005760469188426752</v>
+        <v>0.0005760469188424952</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1490397459702961</v>
+        <v>-0.1521528104942911</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.06621982802397525</v>
+        <v>-0.08019582812924238</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.05599415976463257</v>
+        <v>0.07024987587323425</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1512675953988254</v>
+        <v>-0.1476129593954023</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.1566187937932612</v>
+        <v>-0.155962691492413</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2885780155698328</v>
+        <v>-0.2763089060628837</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1233129901107099</v>
+        <v>-0.1178475078819927</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.09236525054052308</v>
+        <v>-0.08743065379884118</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1489360892679708</v>
+        <v>-0.1506538796676858</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.2040892302421889</v>
+        <v>0.1876455199414168</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.2951049005079215</v>
+        <v>0.2862623538808206</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.7057265621054382</v>
+        <v>0.7435864974086627</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.1204510357011028</v>
+        <v>0.1158604234446866</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1203883818154018</v>
+        <v>0.1068050232498761</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.05236815900867188</v>
+        <v>0.05725850579122682</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.09136410640436253</v>
+        <v>0.09151879289632937</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1394964587664727</v>
+        <v>0.1390242770879958</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.1657668017682965</v>
+        <v>0.1709118295007134</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>-3.775623324411514</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-8.481955376654149</v>
+        <v>-8.481955376654144</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-1.826040614234009</v>
@@ -1939,7 +1939,7 @@
         <v>-1.633433616924918</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-5.637207177315223</v>
+        <v>-5.637207177315218</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-1.211024050578524</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.769519669784055</v>
+        <v>-3.250055510382428</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-6.188704304981777</v>
+        <v>-6.237298688343078</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-11.13575109792011</v>
+        <v>-11.25336837213776</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-4.289689273599673</v>
+        <v>-4.124817978701779</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-4.08498587377861</v>
+        <v>-3.938777530956888</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-8.037061300754528</v>
+        <v>-7.975398153115842</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.861299742997262</v>
+        <v>-3.050522079193759</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-4.313779778461304</v>
+        <v>-4.445625415844352</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-8.723001407288262</v>
+        <v>-9.06971672166617</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.010517319980825</v>
+        <v>1.817536285766958</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-1.340726316380259</v>
+        <v>-1.370549850668088</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-5.426955610643152</v>
+        <v>-5.696372984007592</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.7021423558912574</v>
+        <v>0.9868984572518193</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.608081207696946</v>
+        <v>0.7101217962636907</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-3.010398752492675</v>
+        <v>-3.177464678922178</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>0.7897901087483571</v>
+        <v>0.4795854927294769</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-0.6340226808045633</v>
+        <v>-1.046671469095834</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-4.941937616172613</v>
+        <v>-5.1654355135464</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>-0.07577796055598525</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.1702355411923689</v>
+        <v>-0.1702355411923688</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.04510931732159034</v>
@@ -2044,7 +2044,7 @@
         <v>-0.0403512795801247</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.1392578923967303</v>
+        <v>-0.1392578923967302</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.02686312049190032</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.05473819842710653</v>
+        <v>-0.06379859456970199</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1217112405790356</v>
+        <v>-0.1227123054091662</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2199350916999363</v>
+        <v>-0.2223929733947991</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1031426199708134</v>
+        <v>-0.09955127588556767</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.09804095224334959</v>
+        <v>-0.09514199634059431</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1929003337271664</v>
+        <v>-0.1922746943509255</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.06318921098390651</v>
+        <v>-0.06599099694141181</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.09471715178883915</v>
+        <v>-0.09638448742707525</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.1909799727734141</v>
+        <v>-0.196423556432111</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.0411568332275993</v>
+        <v>0.03744425750260299</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.02758376535934618</v>
+        <v>-0.02847589086546546</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.1120761660294144</v>
+        <v>-0.1182392099542321</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.01787888117140476</v>
+        <v>0.02429700422816272</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.01522788954834408</v>
+        <v>0.01833977621497776</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.07700833200303298</v>
+        <v>-0.08085886331380693</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.01744321849261946</v>
+        <v>0.01069429523193484</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.01476250805558904</v>
+        <v>-0.02360994812106083</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.1112032978020353</v>
+        <v>-0.1170885182528062</v>
       </c>
     </row>
     <row r="46">
